--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4052246e3aae0fac/Desktop/Question-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_3AC153ABD3E0504C433A3611595ED87656CB6AC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D770D2-4A6D-4E40-A3AA-3813E263493E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5DCDD2BBD3E0532A73783111595ED87656CBF7B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CB9421-82CB-432E-9A5E-3369B4B3AF1A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>operand_pattern</t>
+    <t>operands</t>
   </si>
   <si>
     <t>difficulty</t>
@@ -1390,7 +1390,7 @@
     <t>a22:34%b2:15</t>
   </si>
   <si>
-    <t>In the summer camp, Arjun had {a} books. Later, he got {b}, then collected in groups of {c}. How many books does he have now?</t>
+    <t>During the activity  on the way home from school, Arjun began with {a} toffees. Then he collected {b} and grouped into sets of {c}. What's the total?</t>
   </si>
   <si>
     <t>story</t>
@@ -1402,7 +1402,7 @@
     <t>{a} + {b} * {c}</t>
   </si>
   <si>
-    <t>In the summer camp, Rahul had {a} books. Later, he gave away {b}, then received {c}. How many books does he have now?</t>
+    <t>It was  while helping a friend when Rahul collected {a} toys. He donated {b}, later on got from a friend {c}. How many left?</t>
   </si>
   <si>
     <t>a1100:2100-b600:900+c300:600</t>
@@ -1411,7 +1411,7 @@
     <t>{a} - {b} + {c}</t>
   </si>
   <si>
-    <t>In the summer camp, Rahul had {a} shells. Later, he bundled into sets of {b}, then split into parts {c}. How many shells does he have now?</t>
+    <t>Sara had {a} marbles  in the library. She bundled together {b}, and then distributed among children {c}. How many marbles now?</t>
   </si>
   <si>
     <t>a1200:2200*b3:5/c2:4</t>
@@ -1420,7 +1420,7 @@
     <t>{a} * {b} / {c}</t>
   </si>
   <si>
-    <t>While walking to the market, Devika had {a} pencils. Later, she shared equally with friends {b}, then received {c}. How many pencils does she have now?</t>
+    <t>During the activity  during a class activity, Ayaan began with {a} coins. Then he shared with classmates {b} and received {c}. What's the total?</t>
   </si>
   <si>
     <t>a1300:2300/b2:3+c400:800</t>
@@ -1429,7 +1429,7 @@
     <t>{a} / {b} + {c}</t>
   </si>
   <si>
-    <t>While walking to the market, Arjun had {a} coins. Later, he got {b}, then left some aside {c}. How many coins does he have now?</t>
+    <t>It was  in the science fair when Nayana collected {a} toffees. She got from a friend {b}, following that had some leftover {c}. How many left?</t>
   </si>
   <si>
     <t>a1400:2400+b600:900%c3:7</t>
@@ -1438,7 +1438,7 @@
     <t>{a} + {b} % {c}</t>
   </si>
   <si>
-    <t>While helping a friend, Uthara had {a} stickers. Later, she gave away {b}, then collected in groups of {c}. How many stickers does she have now?</t>
+    <t>It was  while helping a friend when Mubees collected {a} balloons. He used up {b}, following that bundled together {c}. How many left?</t>
   </si>
   <si>
     <t>a1500:2500-b700:1000*c2:4</t>
@@ -1447,7 +1447,7 @@
     <t>{a} - {b} * {c}</t>
   </si>
   <si>
-    <t>During a school trip, Uthara had {a} shells. Later, she bundled into sets of {b}, then lost {c}. How many shells does she have now?</t>
+    <t>It was  while helping a friend when Lina collected {a} books. She packed in groups of {b}, later on used up {c}. How many left?</t>
   </si>
   <si>
     <t>a1600:2600*b3:6-c200:500</t>
@@ -1456,13 +1456,13 @@
     <t>{a} * {b} - {c}</t>
   </si>
   <si>
-    <t>While helping a friend, Uthara had {a} toys. Later, she shared equally with friends {b}, then received {c}. How many toys does she have now?</t>
+    <t>During the activity  at a birthday party, Sara began with {a} coins. Then she divided evenly {b} and collected {c}. What's the total?</t>
   </si>
   <si>
     <t>a1700:2700/b3:5+c300:700</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Sara had {a} balloons. Later, she got {b}, then split into parts {c}. How many balloons does she have now?</t>
+    <t>It was  on a picnic when Arjun collected {a} books. He was gifted {b}, and then distributed among children {c}. How many left?</t>
   </si>
   <si>
     <t>a1800:2800+b800:1100/c2:4</t>
@@ -1471,7 +1471,7 @@
     <t>{a} + {b} / {c}</t>
   </si>
   <si>
-    <t>At the village fair, Fayis had {a} stickers. Later, he gave away {b}, then left some aside {c}. How many stickers does he have now?</t>
+    <t>Mubees had {a} pencils  during recess. He donated {b}, and then found a remainder {c}. How many pencils now?</t>
   </si>
   <si>
     <t>a1900:2900-b900:1300%c4:8</t>
@@ -1480,7 +1480,7 @@
     <t>{a} - {b} % {c}</t>
   </si>
   <si>
-    <t>At the village fair, Lina had {a} marbles. Later, she bundled into sets of {b}, then received {c}. How many marbles does she have now?</t>
+    <t>Uthara had {a} pencils  while visiting grandma. She packed in groups of {b}, later on won {c}. How many pencils now?</t>
   </si>
   <si>
     <t>a2000:3000*b2:3+c600:900</t>
@@ -1489,7 +1489,7 @@
     <t>{a} * {b} + {c}</t>
   </si>
   <si>
-    <t>During class break, Fayis had {a} stickers. Later, he shared equally with friends {b}, then lost {c}. How many stickers does he have now?</t>
+    <t>Uthara had {a} coins  on a picnic. She distributed among children {b}, following that shared {c}. How many coins now?</t>
   </si>
   <si>
     <t>a2100:3100/b2:4-c400:700</t>
@@ -1498,121 +1498,121 @@
     <t>{a} / {b} - {c}</t>
   </si>
   <si>
-    <t>In the summer camp, Rahul had {a} balloons. Later, he got {b}, then left some aside {c}. How many balloons does he have now?</t>
+    <t>Mubees had {a} toys  in the science fair. He was gifted {b}, and then had some leftover {c}. How many toys now?</t>
   </si>
   <si>
     <t>a2200:3200+b1000:1300%c5:10</t>
   </si>
   <si>
-    <t>In the summer camp, Lina had {a} toys. Later, she gave away {b}, then received {c}. How many toys does she have now?</t>
+    <t>During the activity  in the library, Uthara began with {a} erasers. Then she lost {b} and was gifted {c}. What's the total?</t>
   </si>
   <si>
     <t>a2300:3300-b1100:1400+c500:800</t>
   </si>
   <si>
-    <t>One fine day, Arjun had {a} toys. Later, he bundled into sets of {b}, then split into parts {c}. How many toys does he have now?</t>
+    <t>It was  during recess when Lina collected {a} books. She bundled together {b}, then divided evenly {c}. How many left?</t>
   </si>
   <si>
     <t>a2400:3400*b3:5/c2:4</t>
   </si>
   <si>
-    <t>During class break, Fayis had {a} toffees. Later, he shared equally with friends {b}, then received {c}. How many toffees does he have now?</t>
+    <t>It was  on the way home from school when Devika collected {a} toys. She divided evenly {b}, then won {c}. How many left?</t>
   </si>
   <si>
     <t>a2500:3500/b2:3+c300:600</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Rahul had {a} shells. Later, he gave away {b}, then collected in groups of {c}. How many shells does he have now?</t>
+    <t>During the activity  during a class activity, Arjun began with {a} stickers. Then he lost {b} and packed in groups of {c}. What's the total?</t>
   </si>
   <si>
     <t>a2600:3600-b1200:1500*c2:4</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Uthara had {a} books. Later, she got {b}, then left some aside {c}. How many books does she have now?</t>
+    <t>During the activity  in the library, Nayana began with {a} balloons. Then she collected {b} and left some aside {c}. What's the total?</t>
   </si>
   <si>
     <t>a2700:3700+b1300:1600%c3:6</t>
   </si>
   <si>
-    <t>One fine day, Arjun had {a} shells. Later, he bundled into sets of {b}, then lost {c}. How many shells does he have now?</t>
+    <t>Devika had {a} shells  after finishing homework. She bundled together {b}, then shared {c}. How many shells now?</t>
   </si>
   <si>
     <t>a2800:3800*b2:3-c400:800</t>
   </si>
   <si>
-    <t>During a school trip, Arjun had {a} books. Later, he shared equally with friends {b}, then received {c}. How many books does he have now?</t>
+    <t>It was  in the library when Fayis collected {a} books. He divided evenly {b}, following that collected {c}. How many left?</t>
   </si>
   <si>
     <t>a2900:3900/b3:5+c500:900</t>
   </si>
   <si>
-    <t>In the summer camp, Nayana had {a} toffees. Later, she got {b}, then split into parts {c}. How many toffees does she have now?</t>
+    <t>During the activity  after finishing homework, Ayaan began with {a} toys. Then he was gifted {b} and split among friends {c}. What's the total?</t>
   </si>
   <si>
     <t>a3000:4000+b1400:1700/c2:4</t>
   </si>
   <si>
-    <t>While walking to the market, Uthara had {a} stickers. Later, she gave away {b}, then left some aside {c}. How many stickers does she have now?</t>
+    <t>During the activity  during recess, Sara began with {a} erasers. Then she donated {b} and left some aside {c}. What's the total?</t>
   </si>
   <si>
     <t>a3100:4100-b1500:1800%c4:8</t>
   </si>
   <si>
-    <t>At the village fair, Mubees had {a} books. Later, he bundled into sets of {b}, then received {c}. How many books does he have now?</t>
+    <t>It was  at a birthday party when Mubees collected {a} toys. He grouped into sets of {b}, then got from a friend {c}. How many left?</t>
   </si>
   <si>
     <t>a3200:4200*b3:6+c600:1000</t>
   </si>
   <si>
-    <t>During a school trip, Sanit had {a} shells. Later, she shared equally with friends {b}, then lost {c}. How many shells does she have now?</t>
+    <t>It was  in the library when Sara collected {a} marbles. She shared with classmates {b}, then shared {c}. How many left?</t>
   </si>
   <si>
     <t>a3300:4300/b2:3-c300:700</t>
   </si>
   <si>
-    <t>In the summer camp, Sanit had {a} marbles. Later, she got {b}, then left some aside {c}. How many marbles does she have now?</t>
+    <t>During the activity  in the library, Ayaan began with {a} balloons. Then he got from a friend {b} and had some leftover {c}. What's the total?</t>
   </si>
   <si>
     <t>a3400:4400+b1600:1900%c2:5</t>
   </si>
   <si>
-    <t>During a school trip, Sara had {a} toys. Later, she gave away {b}, then received {c}. How many toys does she have now?</t>
+    <t>During the activity  in the science fair, Ayaan began with {a} toys. Then he shared {b} and was gifted {c}. What's the total?</t>
   </si>
   <si>
     <t>a3500:4500-b1700:2000+c700:1100</t>
   </si>
   <si>
-    <t>During class break, Sanit had {a} toys. Later, she bundled into sets of {b}, then split into parts {c}. How many toys does she have now?</t>
+    <t>It was  while visiting grandma when Rahul collected {a} coins. He bundled together {b}, and then divided evenly {c}. How many left?</t>
   </si>
   <si>
     <t>a3600:4600*b2:4/c2:3</t>
   </si>
   <si>
-    <t>During class break, Arjun had {a} toffees. Later, he shared equally with friends {b}, then received {c}. How many toffees does he have now?</t>
+    <t>Fayis had {a} toys  on the way home from school. He split among friends {b}, later on collected {c}. How many toys now?</t>
   </si>
   <si>
     <t>a3700:4700/b2:4+c800:1200</t>
   </si>
   <si>
-    <t>While helping a friend, Rahul had {a} pencils. Later, he gave away {b}, then collected in groups of {c}. How many pencils does he have now?</t>
+    <t>Devika had {a} marbles  in the science fair. She donated {b}, then bundled together {c}. How many marbles now?</t>
   </si>
   <si>
     <t>a3800:4800-b1800:2100*c3:5</t>
   </si>
   <si>
-    <t>One fine day, Devika had {a} toffees. Later, she got {b}, then split into parts {c}. How many toffees does she have now?</t>
+    <t>It was  in the science fair when Fayis collected {a} toffees. He was gifted {b}, following that split among friends {c}. How many left?</t>
   </si>
   <si>
     <t>a3900:4900+b900:1300/c3:6</t>
   </si>
   <si>
-    <t>While walking to the market, Arjun had {a} balloons. Later, he got {b}. How many balloons does he have now?</t>
+    <t>Sanit had {a} coins  at a birthday party. She was gifted {b}. How many coins does she have now?</t>
   </si>
   <si>
     <t>a50:100+b10:30</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Mubees had {a} toffees. Later, he gave away {b}. How many toffees does he have now?</t>
+    <t>It happened  while helping a friend when Ayaan started with {a} stickers. He used up {b}. What's left now?</t>
   </si>
   <si>
     <t>a60:110-b20:40</t>
@@ -1621,175 +1621,175 @@
     <t>{a} - {b}</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Lina had {a} coins. Later, she bundled into sets of {b}. How many coins does she have now?</t>
+    <t>Ayaan owned {a} toys  in the science fair. Later, he bundled together {b}. How many remain?</t>
   </si>
   <si>
     <t>a70:120*b1:3</t>
   </si>
   <si>
-    <t>While helping a friend, Ayaan had {a} toffees. Later, he shared equally with friends {b}. How many toffees does he have now?</t>
+    <t>Ayaan owned {a} toys  on a picnic. Later, he divided evenly {b}. How many remain?</t>
   </si>
   <si>
     <t>a80:130/b2:5</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Devika had {a} stickers. Later, she kept a few as leftover {b}. How many stickers does she have now?</t>
+    <t>It happened  while helping a friend when Uthara started with {a} pencils. She found a remainder {b}. What's left now?</t>
   </si>
   <si>
     <t>a90:140%b3:6</t>
   </si>
   <si>
-    <t>At the village fair, Arjun had {a} balloons. Later, he got {b}. How many balloons does he have now?</t>
+    <t>Uthara had {a} books  in the science fair. She was gifted {b}. How many books does she have now?</t>
   </si>
   <si>
     <t>a100:150+b20:30</t>
   </si>
   <si>
-    <t>On her birthday, Arjun had {a} balloons. Later, he gave away {b}. How many balloons does he have now?</t>
+    <t>It happened  while helping a friend when Rahul started with {a} shells. He gave away {b}. What's left now?</t>
   </si>
   <si>
     <t>a110:160-b30:50</t>
   </si>
   <si>
-    <t>In the summer camp, Mubees had {a} marbles. Later, he bundled into sets of {b}. How many marbles does he have now?</t>
+    <t>Sanit owned {a} books  on a picnic. Later, she grouped into sets of {b}. How many remain?</t>
   </si>
   <si>
     <t>a60:120*b2:4</t>
   </si>
   <si>
-    <t>While helping a friend, Sanit had {a} toffees. Later, she shared equally with friends {b}. How many toffees does she have now?</t>
+    <t>Rahul had {a} books  while visiting grandma. He divided evenly {b}. How many books does he have now?</t>
   </si>
   <si>
     <t>a80:130/b2:3</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Ayaan had {a} balloons. Later, he kept a few as leftover {b}. How many balloons does he have now?</t>
+    <t>It happened  during a class activity when Arjun started with {a} erasers. He kept a part aside {b}. What's left now?</t>
   </si>
   <si>
     <t>a70:110%b5:10</t>
   </si>
   <si>
-    <t>On her birthday, Lina had {a} pencils. Later, she got {b}. How many pencils does she have now?</t>
+    <t>Rahul owned {a} shells  in the science fair. Later, he won {b}. How many remain?</t>
   </si>
   <si>
     <t>a95:145+b15:25</t>
   </si>
   <si>
-    <t>In the summer camp, Arjun had {a} books. Later, he gave away {b}. How many books does he have now?</t>
+    <t>Lina had {a} toys  during recess. She used up {b}. How many toys does she have now?</t>
   </si>
   <si>
     <t>a75:125-b10:20</t>
   </si>
   <si>
-    <t>On her birthday, Uthara had {a} toys. Later, she bundled into sets of {b}. How many toys does she have now?</t>
+    <t>Arjun owned {a} erasers  during recess. Later, he bundled together {b}. How many remain?</t>
   </si>
   <si>
     <t>a85:135*b2:3</t>
   </si>
   <si>
-    <t>While helping a friend, Arjun had {a} books. Later, he shared equally with friends {b}. How many books does he have now?</t>
+    <t>Sara had {a} erasers  in the library. She distributed among children {b}. How many erasers does she have now?</t>
   </si>
   <si>
     <t>a60:110/b2:4</t>
   </si>
   <si>
-    <t>At the village fair, Sara had {a} toys. Later, she kept a few as leftover {b}. How many toys does she have now?</t>
+    <t>Ayaan owned {a} stickers  on a picnic. Later, he kept a part aside {b}. How many remain?</t>
   </si>
   <si>
     <t>a70:120%b4:8</t>
   </si>
   <si>
-    <t>During a school trip, Uthara had {a} books. Later, she got {b}. How many books does she have now?</t>
+    <t>It happened  during a class activity when Uthara started with {a} coins. She collected {b}. What's left now?</t>
   </si>
   <si>
     <t>a50:100+b10:20</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Devika had {a} marbles. Later, she gave away {b}. How many marbles does she have now?</t>
+    <t>Mubees had {a} toffees  at a birthday party. He lost {b}. How many toffees does he have now?</t>
   </si>
   <si>
     <t>a65:115-b20:30</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Devika had {a} toffees. Later, she bundled into sets of {b}. How many toffees does she have now?</t>
+    <t>Nayana had {a} pencils  during recess. She grouped into sets of {b}. How many pencils does she have now?</t>
   </si>
   <si>
     <t>a100:150*b2:4</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Nayana had {a} balloons. Later, she shared equally with friends {b}. How many balloons does she have now?</t>
+    <t>Nayana had {a} pencils  after finishing homework. She divided evenly {b}. How many pencils does she have now?</t>
   </si>
   <si>
     <t>a90:140/b3:6</t>
   </si>
   <si>
-    <t>In the summer camp, Uthara had {a} toffees. Later, she kept a few as leftover {b}. How many toffees does she have now?</t>
+    <t>Devika owned {a} marbles  while helping a friend. Later, she had some leftover {b}. How many remain?</t>
   </si>
   <si>
     <t>a80:130%b2:5</t>
   </si>
   <si>
-    <t>While walking to the market, Rahul had {a} balloons. Later, he got {b}. How many balloons does he have now?</t>
+    <t>Ayaan owned {a} coins  while helping a friend. Later, he collected {b}. How many remain?</t>
   </si>
   <si>
     <t>a55:105+b10:20</t>
   </si>
   <si>
-    <t>While walking to the market, Nayana had {a} toys. Later, she gave away {b}. How many toys does she have now?</t>
+    <t>It happened  in the library when Nayana started with {a} erasers. She lost {b}. What's left now?</t>
   </si>
   <si>
     <t>a60:110-b15:25</t>
   </si>
   <si>
-    <t>At the village fair, Mubees had {a} stickers. Later, he bundled into sets of {b}. How many stickers does he have now?</t>
+    <t>Fayis owned {a} books  on the way home from school. Later, he packed in groups of {b}. How many remain?</t>
   </si>
   <si>
     <t>a70:120*b3:4</t>
   </si>
   <si>
-    <t>On her birthday, Arjun had {a} marbles. Later, he shared equally with friends {b}. How many marbles does he have now?</t>
+    <t>It happened  on a picnic when Arjun started with {a} toffees. He split among friends {b}. What's left now?</t>
   </si>
   <si>
     <t>a85:135/b2:4</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Mubees had {a} stickers. Later, he kept a few as leftover {b}. How many stickers does he have now?</t>
+    <t>Sara had {a} erasers  during recess. She had some leftover {b}. How many erasers does she have now?</t>
   </si>
   <si>
     <t>a95:145%b3:6</t>
   </si>
   <si>
-    <t>During a school trip, Sara had {a} books. Later, she got {b}. How many books does she have now?</t>
+    <t>Nayana owned {a} coins  after finishing homework. Later, she won {b}. How many remain?</t>
   </si>
   <si>
     <t>a100:150+b25:35</t>
   </si>
   <si>
-    <t>While walking to the market, Arjun had {a} books. Later, he gave away {b}. How many books does he have now?</t>
+    <t>Ayaan owned {a} shells  during recess. Later, he donated {b}. How many remain?</t>
   </si>
   <si>
     <t>a60:100-b10:20</t>
   </si>
   <si>
-    <t>During class break, Arjun had {a} marbles. Later, he bundled into sets of {b}. How many marbles does he have now?</t>
+    <t>It happened  on a picnic when Nayana started with {a} books. She grouped into sets of {b}. What's left now?</t>
   </si>
   <si>
     <t>a65:105*b2:3</t>
   </si>
   <si>
-    <t>During a school trip, Sara had {a} shells. Later, she shared equally with friends {b}. How many shells does she have now?</t>
+    <t>Sara owned {a} toys  during a class activity. Later, she shared with classmates {b}. How many remain?</t>
   </si>
   <si>
     <t>a75:115/b2:3</t>
   </si>
   <si>
-    <t>During class break, Fayis had {a} coins. Later, he kept a few as leftover {b}. How many coins does he have now?</t>
+    <t>Nayana had {a} toys  during recess. She left some aside {b}. How many toys does she have now?</t>
   </si>
   <si>
     <t>a80:120%b2:4</t>
   </si>
   <si>
-    <t>At the village fair, Rahul had {a} stickers. Later, he got {b}, then lost {c}. How many stickers does he have now?</t>
+    <t>Devika had {a} shells  on the way home from school. She got from a friend {b}, following that donated {c}. How many shells now?</t>
   </si>
   <si>
     <t>a300:600+b100:200-c50:150</t>
@@ -1798,151 +1798,151 @@
     <t>{a} + {b} - {c}</t>
   </si>
   <si>
-    <t>In the summer camp, Arjun had {a} marbles. Later, he bundled into sets of {b}, then received {c}. How many marbles does he have now?</t>
+    <t>It was  in the library when Arjun collected {a} coins. He packed in groups of {b}, later on received {c}. How many left?</t>
   </si>
   <si>
     <t>a350:700*b2:4+c80:160</t>
   </si>
   <si>
-    <t>During a school trip, Uthara had {a} balloons. Later, she gave away {b}, then received {c}. How many balloons does she have now?</t>
+    <t>During the activity  while visiting grandma, Arjun began with {a} shells. Then he gave away {b} and got from a friend {c}. What's the total?</t>
   </si>
   <si>
     <t>a400:800-b150:250+c100:200</t>
   </si>
   <si>
-    <t>One fine day, Mubees had {a} books. Later, he got {b}, then collected in groups of {c}. How many books does he have now?</t>
+    <t>It was  during recess when Arjun collected {a} toys. He got from a friend {b}, later on packed in groups of {c}. How many left?</t>
   </si>
   <si>
     <t>a500:900+b200:300*c2:4</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Arjun had {a} coins. Later, he shared equally with friends {b}, then lost {c}. How many coins does he have now?</t>
+    <t>It was  on the way home from school when Nayana collected {a} stickers. She shared with classmates {b}, then lost {c}. How many left?</t>
   </si>
   <si>
     <t>a600:1000/b2:4-c150:250</t>
   </si>
   <si>
-    <t>In the summer camp, Sara had {a} balloons. Later, she got {b}, then left some aside {c}. How many balloons does she have now?</t>
+    <t>Devika had {a} shells  during recess. She won {b}, after that kept a part aside {c}. How many shells now?</t>
   </si>
   <si>
     <t>a700:1100+b150:250%c5:10</t>
   </si>
   <si>
-    <t>During a school trip, Lina had {a} balloons. Later, she gave away {b}, then received {c}. How many balloons does she have now?</t>
+    <t>During the activity  in the library, Arjun began with {a} pencils. Then he gave away {b} and received {c}. What's the total?</t>
   </si>
   <si>
     <t>a800:1200-b200:300+c100:200</t>
   </si>
   <si>
-    <t>While walking to the market, Fayis had {a} coins. Later, he bundled into sets of {b}, then lost {c}. How many coins does he have now?</t>
+    <t>It was  in the science fair when Nayana collected {a} marbles. She grouped into sets of {b}, after that gave away {c}. How many left?</t>
   </si>
   <si>
     <t>a850:1300*b3:5-c200:300</t>
   </si>
   <si>
-    <t>On her birthday, Ayaan had {a} toffees. Later, he got {b}, then split into parts {c}. How many toffees does he have now?</t>
+    <t>Rahul had {a} stickers  while visiting grandma. He won {b}, following that shared with classmates {c}. How many stickers now?</t>
   </si>
   <si>
     <t>a900:1400+b300:400/c2:3</t>
   </si>
   <si>
-    <t>In the summer camp, Mubees had {a} pencils. Later, he gave away {b}, then left some aside {c}. How many pencils does he have now?</t>
+    <t>It was  on the way home from school when Arjun collected {a} shells. He used up {b}, and then kept a part aside {c}. How many left?</t>
   </si>
   <si>
     <t>a1000:1500-b400:600%c4:8</t>
   </si>
   <si>
-    <t>In the summer camp, Nayana had {a} toffees. Later, she bundled into sets of {b}, then received {c}. How many toffees does she have now?</t>
+    <t>During the activity  on the way home from school, Ayaan began with {a} toffees. Then he bundled together {b} and received {c}. What's the total?</t>
   </si>
   <si>
     <t>a1100:1600*b2:3+c200:300</t>
   </si>
   <si>
-    <t>In the summer camp, Rahul had {a} marbles. Later, he shared equally with friends {b}, then lost {c}. How many marbles does he have now?</t>
+    <t>Nayana had {a} stickers  while visiting grandma. She split among friends {b}, after that lost {c}. How many stickers now?</t>
   </si>
   <si>
     <t>a1200:1700/b3:5-c150:250</t>
   </si>
   <si>
-    <t>In the summer camp, Devika had {a} stickers. Later, she got {b}, then collected in groups of {c}. How many stickers does she have now?</t>
+    <t>It was  while helping a friend when Sanit collected {a} marbles. She won {b}, and then grouped into sets of {c}. How many left?</t>
   </si>
   <si>
     <t>a1300:1800+b400:600*c2:3</t>
   </si>
   <si>
-    <t>One fine day, Fayis had {a} books. Later, he gave away {b}, then left some aside {c}. How many books does he have now?</t>
+    <t>Fayis had {a} marbles  in the library. He lost {b}, after that had some leftover {c}. How many marbles now?</t>
   </si>
   <si>
     <t>a1400:1900-b500:700%c3:5</t>
   </si>
   <si>
-    <t>During class break, Mubees had {a} stickers. Later, he got {b}, then lost {c}. How many stickers does he have now?</t>
+    <t>It was  at a birthday party when Fayis collected {a} toys. He won {b}, after that gave away {c}. How many left?</t>
   </si>
   <si>
     <t>a1500:2000+b600:900-c250:400</t>
   </si>
   <si>
-    <t>While helping a friend, Rahul had {a} balloons. Later, he bundled into sets of {b}, then split into parts {c}. How many balloons does he have now?</t>
+    <t>Fayis had {a} toys  at a birthday party. He packed in groups of {b}, following that split among friends {c}. How many toys now?</t>
   </si>
   <si>
     <t>a1600:2100*b3:5/c2:4</t>
   </si>
   <si>
-    <t>At the village fair, Ayaan had {a} toys. Later, he shared equally with friends {b}, then received {c}. How many toys does he have now?</t>
+    <t>Rahul had {a} coins  during recess. He divided evenly {b}, following that was gifted {c}. How many coins now?</t>
   </si>
   <si>
     <t>a1700:2200/b2:3+c300:500</t>
   </si>
   <si>
-    <t>At the village fair, Sara had {a} books. Later, she gave away {b}, then collected in groups of {c}. How many books does she have now?</t>
+    <t>It was  while visiting grandma when Lina collected {a} marbles. She shared {b}, and then packed in groups of {c}. How many left?</t>
   </si>
   <si>
     <t>a1800:2300-b600:800*c2:4</t>
   </si>
   <si>
-    <t>While walking to the market, Sanit had {a} books. Later, she got {b}, then left some aside {c}. How many books does she have now?</t>
+    <t>It was  after finishing homework when Sara collected {a} pencils. She received {b}, following that kept a part aside {c}. How many left?</t>
   </si>
   <si>
     <t>a1900:2400+b700:900%c4:7</t>
   </si>
   <si>
-    <t>During a school trip, Devika had {a} pencils. Later, she bundled into sets of {b}, then lost {c}. How many pencils does she have now?</t>
+    <t>It was  on the way home from school when Arjun collected {a} erasers. He bundled together {b}, after that shared {c}. How many left?</t>
   </si>
   <si>
     <t>a2000:2500*b2:3-c300:500</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Lina had {a} coins. Later, she shared equally with friends {b}, then received {c}. How many coins does she have now?</t>
+    <t>Mubees had {a} balloons  during recess. He shared with classmates {b}, then won {c}. How many balloons now?</t>
   </si>
   <si>
     <t>a2100:2600/b3:6+c400:600</t>
   </si>
   <si>
-    <t>One fine day, Nayana had {a} shells. Later, she gave away {b}, then left some aside {c}. How many shells does she have now?</t>
+    <t>Ayaan had {a} balloons  while visiting grandma. He used up {b}, after that kept a part aside {c}. How many balloons now?</t>
   </si>
   <si>
     <t>a2200:2700-b800:1000%c5:10</t>
   </si>
   <si>
-    <t>While walking to the market, Sanit had {a} coins. Later, she got {b}, then split into parts {c}. How many coins does she have now?</t>
+    <t>Uthara had {a} coins  in the science fair. She collected {b}, then shared with classmates {c}. How many coins now?</t>
   </si>
   <si>
     <t>a2300:2800+b900:1100/c2:3</t>
   </si>
   <si>
-    <t>One fine day, Rahul had {a} shells. Later, he bundled into sets of {b}, then lost {c}. How many shells does he have now?</t>
+    <t>It was  during recess when Uthara collected {a} shells. She bundled together {b}, following that used up {c}. How many left?</t>
   </si>
   <si>
     <t>a2400:2900*b2:4-c200:400</t>
   </si>
   <si>
-    <t>During class break, Rahul had {a} pencils. Later, he shared equally with friends {b}, then received {c}. How many pencils does he have now?</t>
+    <t>Rahul had {a} shells  in the library. He divided evenly {b}, following that got from a friend {c}. How many shells now?</t>
   </si>
   <si>
     <t>a2500:3000/b2:4+c500:700</t>
   </si>
   <si>
-    <t>In the summer camp, Sanit had {a} toffees. Later, she kept a few as leftover {b}, then lost {c}. How many toffees does she have now?</t>
+    <t>It was  while visiting grandma when Fayis collected {a} toys. He had some leftover {b}, later on used up {c}. How many left?</t>
   </si>
   <si>
     <t>a2600:3100%b4:8-c600:900</t>
@@ -1951,55 +1951,55 @@
     <t>{a} % {b} - {c}</t>
   </si>
   <si>
-    <t>One fine day, Ayaan had {a} marbles. Later, he got {b}, then lost {c}. How many marbles does he have now?</t>
+    <t>During the activity  on the way home from school, Sara began with {a} stickers. Then she received {b} and used up {c}. What's the total?</t>
   </si>
   <si>
     <t>a2700:3200+b1000:1200-c300:600</t>
   </si>
   <si>
-    <t>In the summer camp, Nayana had {a} shells. Later, she bundled into sets of {b}, then split into parts {c}. How many shells does she have now?</t>
+    <t>During the activity  at a birthday party, Sanit began with {a} stickers. Then she packed in groups of {b} and shared with classmates {c}. What's the total?</t>
   </si>
   <si>
     <t>a2800:3300*b2:3/c2:5</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Sara had {a} marbles. Later, she shared equally with friends {b}, then received {c}. How many marbles does she have now?</t>
+    <t>Lina had {a} books  on the way home from school. She split among friends {b}, after that collected {c}. How many books now?</t>
   </si>
   <si>
     <t>a2900:3400/b2:3+c300:600</t>
   </si>
   <si>
-    <t>One fine day, Sara had {a} marbles. Later, she gave away {b}, then received {c}. How many marbles does she have now?</t>
+    <t>During the activity  in the science fair, Devika began with {a} marbles. Then she gave away {b} and received {c}. What's the total?</t>
   </si>
   <si>
     <t>a3000:3500-b800:1100+c200:500</t>
   </si>
   <si>
-    <t>While walking to the market, Sara had {a} toys. Later, she got {b}, then lost {c}. How many toys does she have now?</t>
+    <t>It was  while helping a friend when Ayaan collected {a} balloons. He was gifted {b}, and then used up {c}. How many left?</t>
   </si>
   <si>
     <t>a100:200+b50:100-c30:60</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Sara had {a} books. Later, she bundled into sets of {b}, then received {c}. How many books does she have now?</t>
+    <t>Fayis had {a} coins  at a birthday party. He packed in groups of {b}, and then was gifted {c}. How many coins now?</t>
   </si>
   <si>
     <t>a150:250*b2:4+c10:30</t>
   </si>
   <si>
-    <t>During class break, Mubees had {a} balloons. Later, he gave away {b}, then received {c}. How many balloons does he have now?</t>
+    <t>It was  while visiting grandma when Sanit collected {a} toys. She donated {b}, and then received {c}. How many left?</t>
   </si>
   <si>
     <t>a300:500-b100:150+c50:80</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Ayaan had {a} stickers. Later, he got {b}, then split into parts {c}. How many stickers does he have now?</t>
+    <t>It was  after finishing homework when Devika collected {a} toffees. She received {b}, after that divided evenly {c}. How many left?</t>
   </si>
   <si>
     <t>a350:450+b60:90/c3:5</t>
   </si>
   <si>
-    <t>While walking to the market, Arjun had {a} marbles. Later, he bundled into sets of {b}, then left some aside {c}. How many marbles does he have now?</t>
+    <t>During the activity  on the way home from school, Arjun began with {a} pencils. Then he packed in groups of {b} and had some leftover {c}. What's the total?</t>
   </si>
   <si>
     <t>a100:150*b2:3%c5:10</t>
@@ -2008,61 +2008,61 @@
     <t>{a} * {b} % {c}</t>
   </si>
   <si>
-    <t>On her birthday, Ayaan had {a} toffees. Later, he got {b}, then lost {c}. How many toffees does he have now?</t>
+    <t>During the activity  in the library, Mubees began with {a} books. Then he got from a friend {b} and shared {c}. What's the total?</t>
   </si>
   <si>
     <t>a200:400+b100:200-c50:100</t>
   </si>
   <si>
-    <t>On her birthday, Sanit had {a} pencils. Later, she bundled into sets of {b}, then split into parts {c}. How many pencils does she have now?</t>
+    <t>Lina had {a} toffees  after finishing homework. She bundled together {b}, and then shared with classmates {c}. How many toffees now?</t>
   </si>
   <si>
     <t>a250:450*b2:3/c2:4</t>
   </si>
   <si>
-    <t>During class break, Mubees had {a} stickers. Later, he gave away {b}, then left some aside {c}. How many stickers does he have now?</t>
+    <t>During the activity  on a picnic, Uthara began with {a} coins. Then she used up {b} and found a remainder {c}. What's the total?</t>
   </si>
   <si>
     <t>a120:220-b60:80%c4:6</t>
   </si>
   <si>
-    <t>At the village fair, Ayaan had {a} pencils. Later, he got {b}, then collected in groups of {c}. How many pencils does he have now?</t>
+    <t>During the activity  in the library, Sara began with {a} erasers. Then she received {b} and grouped into sets of {c}. What's the total?</t>
   </si>
   <si>
     <t>a280:380+b40:70*c1:3</t>
   </si>
   <si>
-    <t>While walking to the market, Fayis had {a} balloons. Later, he gave away {b}, then received {c}. How many balloons does he have now?</t>
+    <t>It was  at a birthday party when Rahul collected {a} stickers. He donated {b}, following that was gifted {c}. How many left?</t>
   </si>
   <si>
     <t>a310:410-b90:140+c20:40</t>
   </si>
   <si>
-    <t>On her birthday, Sara had {a} pencils. Later, she bundled into sets of {b}, then split into parts {c}. How many pencils does she have now?</t>
+    <t>It was  in the library when Mubees collected {a} coins. He bundled together {b}, later on distributed among children {c}. How many left?</t>
   </si>
   <si>
     <t>a200:300*b1:3/c2:4</t>
   </si>
   <si>
-    <t>During a school trip, Ayaan had {a} books. Later, he got {b}, then left some aside {c}. How many books does he have now?</t>
+    <t>During the activity  while visiting grandma, Nayana began with {a} pencils. Then she was gifted {b} and left some aside {c}. What's the total?</t>
   </si>
   <si>
     <t>a100:200+b80:100%c3:6</t>
   </si>
   <si>
-    <t>During class break, Nayana had {a} pencils. Later, she gave away {b}, then collected in groups of {c}. How many pencils does she have now?</t>
+    <t>During the activity  on a picnic, Lina began with {a} shells. Then she used up {b} and grouped into sets of {c}. What's the total?</t>
   </si>
   <si>
     <t>a120:180-b40:60*c2:3</t>
   </si>
   <si>
-    <t>While helping a friend, Sara had {a} toys. Later, she shared equally with friends {b}, then lost {c}. How many toys does she have now?</t>
+    <t>It was  in the science fair when Sara collected {a} books. She divided evenly {b}, and then shared {c}. How many left?</t>
   </si>
   <si>
     <t>a320:420/b3:5-c60:90</t>
   </si>
   <si>
-    <t>One fine day, Nayana had {a} marbles. Later, she kept a few as leftover {b}, then received {c}. How many marbles does she have now?</t>
+    <t>During the activity  in the library, Sara began with {a} books. Then she found a remainder {b} and collected {c}. What's the total?</t>
   </si>
   <si>
     <t>a260:360%b5:10+c30:50</t>
@@ -2071,13 +2071,13 @@
     <t>{a} % {b} + {c}</t>
   </si>
   <si>
-    <t>At the village fair, Fayis had {a} pencils. Later, he bundled into sets of {b}, then received {c}. How many pencils does he have now?</t>
+    <t>It was  in the science fair when Sara collected {a} stickers. She bundled together {b}, then won {c}. How many left?</t>
   </si>
   <si>
     <t>a180:280*b3:4+c20:40</t>
   </si>
   <si>
-    <t>At the village fair, Mubees had {a} stickers. Later, he gave away {b}, then split into parts {c}. How many stickers does he have now?</t>
+    <t>It was  during recess when Arjun collected {a} marbles. He donated {b}, after that distributed among children {c}. How many left?</t>
   </si>
   <si>
     <t>a190:290-b70:110/c2:4</t>
@@ -2086,259 +2086,259 @@
     <t>{a} - {b} / {c}</t>
   </si>
   <si>
-    <t>While walking to the market, Nayana had {a} pencils. Later, she got {b}, then left some aside {c}. How many pencils does she have now?</t>
+    <t>During the activity  during recess, Sanit began with {a} toffees. Then she got from a friend {b} and had some leftover {c}. What's the total?</t>
   </si>
   <si>
     <t>a300:400+b90:130%c4:6</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Sara had {a} shells. Later, she shared equally with friends {b}, then received {c}. How many shells does she have now?</t>
+    <t>Rahul had {a} marbles  in the science fair. He divided evenly {b}, after that got from a friend {c}. How many marbles now?</t>
   </si>
   <si>
     <t>a270:370/b2:3+c30:50</t>
   </si>
   <si>
-    <t>On her birthday, Uthara had {a} toys. Later, she kept a few as leftover {b}, then lost {c}. How many toys does she have now?</t>
+    <t>During the activity  while visiting grandma, Rahul began with {a} books. Then he found a remainder {b} and lost {c}. What's the total?</t>
   </si>
   <si>
     <t>a200:350%b6:10-c40:70</t>
   </si>
   <si>
-    <t>During class break, Arjun had {a} shells. Later, he got {b}, then collected in groups of {c}. How many shells does he have now?</t>
+    <t>Ayaan had {a} stickers  during recess. He received {b}, following that packed in groups of {c}. How many stickers now?</t>
   </si>
   <si>
     <t>a230:330+b50:90*c2:3</t>
   </si>
   <si>
-    <t>On her birthday, Ayaan had {a} stickers. Later, he gave away {b}, then split into parts {c}. How many stickers does he have now?</t>
+    <t>During the activity  at a birthday party, Sanit began with {a} pencils. Then she shared {b} and distributed among children {c}. What's the total?</t>
   </si>
   <si>
     <t>a280:380-b80:120/c3:4</t>
   </si>
   <si>
-    <t>During a school trip, Sanit had {a} coins. Later, she got {b}, then left some aside {c}. How many coins does she have now?</t>
+    <t>Nayana had {a} books  in the library. She got from a friend {b}, following that left some aside {c}. How many books now?</t>
   </si>
   <si>
     <t>a310:410+b100:150%c3:5</t>
   </si>
   <si>
-    <t>While helping a friend, Devika had {a} shells. Later, she bundled into sets of {b}, then received {c}. How many shells does she have now?</t>
+    <t>Arjun had {a} pencils  during a class activity. He grouped into sets of {b}, then was gifted {c}. How many pencils now?</t>
   </si>
   <si>
     <t>a240:340*b2:3+c50:90</t>
   </si>
   <si>
-    <t>At the village fair, Sara had {a} marbles. Later, she gave away {b}, then left some aside {c}. How many marbles does she have now?</t>
+    <t>It was  while helping a friend when Devika collected {a} shells. She lost {b}, and then left some aside {c}. How many left?</t>
   </si>
   <si>
     <t>a350:450-b100:150%c2:4</t>
   </si>
   <si>
-    <t>While helping a friend, Mubees had {a} pencils. Later, he got {b}, then lost {c}. How many pencils does he have now?</t>
+    <t>It was  during a class activity when Arjun collected {a} toffees. He was gifted {b}, following that gave away {c}. How many left?</t>
   </si>
   <si>
     <t>a270:370+b60:100-c20:30</t>
   </si>
   <si>
-    <t>During class break, Sanit had {a} stickers. Later, she bundled into sets of {b}, then split into parts {c}. How many stickers does she have now?</t>
+    <t>Fayis had {a} marbles  at a birthday party. He grouped into sets of {b}, then divided evenly {c}. How many marbles now?</t>
   </si>
   <si>
     <t>a230:330*b2:3/c3:6</t>
   </si>
   <si>
-    <t>At the village fair, Sanit had {a} coins. Later, she shared equally with friends {b}, then received {c}. How many coins does she have now?</t>
+    <t>During the activity  on a picnic, Rahul began with {a} shells. Then he distributed among children {b} and received {c}. What's the total?</t>
   </si>
   <si>
     <t>a280:380/b2:4+c80:120</t>
   </si>
   <si>
-    <t>On her birthday, Arjun had {a} books. Later, he kept a few as leftover {b}, then lost {c}. How many books does he have now?</t>
+    <t>Mubees had {a} toffees  in the library. He had some leftover {b}, later on donated {c}. How many toffees now?</t>
   </si>
   <si>
     <t>a300:400%b4:7-c60:100</t>
   </si>
   <si>
-    <t>While helping a friend, Lina had {a} balloons. Later, she got {b}, then collected in groups of {c}. How many balloons does she have now?</t>
+    <t>Nayana had {a} stickers  while helping a friend. She got from a friend {b}, and then bundled together {c}. How many stickers now?</t>
   </si>
   <si>
     <t>a200:300+b90:140*c1:2</t>
   </si>
   <si>
-    <t>During a school trip, Sara had {a} stickers. Later, she got {b}. How many stickers does she have now?</t>
+    <t>Fayis owned {a} coins  at a birthday party. Later, he was gifted {b}. How many remain?</t>
   </si>
   <si>
     <t>a10:20+b5:10</t>
   </si>
   <si>
-    <t>At the village fair, Sara had {a} toys. Later, she gave away {b}. How many toys does she have now?</t>
+    <t>It happened  at a birthday party when Sara started with {a} pencils. She gave away {b}. What's left now?</t>
   </si>
   <si>
     <t>a15:25-b3:8</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Fayis had {a} books. Later, he bundled into sets of {b}. How many books does he have now?</t>
+    <t>Rahul owned {a} toffees  after finishing homework. Later, he bundled together {b}. How many remain?</t>
   </si>
   <si>
     <t>a20:30*b2:3</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Uthara had {a} toys. Later, she shared equally with friends {b}. How many toys does she have now?</t>
+    <t>Lina had {a} books  on the way home from school. She split among friends {b}. How many books does she have now?</t>
   </si>
   <si>
     <t>a18:28/b2:3</t>
   </si>
   <si>
-    <t>During class break, Ayaan had {a} toys. Later, he kept a few as leftover {b}. How many toys does he have now?</t>
+    <t>Ayaan had {a} stickers  in the library. He found a remainder {b}. How many stickers does he have now?</t>
   </si>
   <si>
     <t>a25:30%b2:5</t>
   </si>
   <si>
-    <t>In the summer camp, Mubees had {a} toffees. Later, he got {b}. How many toffees does he have now?</t>
+    <t>It happened  in the science fair when Sara started with {a} shells. She collected {b}. What's left now?</t>
   </si>
   <si>
     <t>a12:22+b4:9</t>
   </si>
   <si>
-    <t>During class break, Ayaan had {a} balloons. Later, he gave away {b}. How many balloons does he have now?</t>
+    <t>Sanit had {a} erasers  during recess. She donated {b}. How many erasers does she have now?</t>
   </si>
   <si>
     <t>a14:24-b3:6</t>
   </si>
   <si>
-    <t>During class break, Lina had {a} toffees. Later, she bundled into sets of {b}. How many toffees does she have now?</t>
+    <t>Mubees had {a} toys  while helping a friend. He bundled together {b}. How many toys does he have now?</t>
   </si>
   <si>
     <t>a20:25*b1:2</t>
   </si>
   <si>
-    <t>During class break, Sara had {a} stickers. Later, she shared equally with friends {b}. How many stickers does she have now?</t>
+    <t>Lina owned {a} toys  at a birthday party. Later, she split among friends {b}. How many remain?</t>
   </si>
   <si>
     <t>a21:30/b3:6</t>
   </si>
   <si>
-    <t>During a school trip, Fayis had {a} balloons. Later, he kept a few as leftover {b}. How many balloons does he have now?</t>
+    <t>It happened  during recess when Devika started with {a} marbles. She left some aside {b}. What's left now?</t>
   </si>
   <si>
     <t>a24:30%b3:4</t>
   </si>
   <si>
-    <t>While walking to the market, Fayis had {a} balloons. Later, he got {b}. How many balloons does he have now?</t>
+    <t>It happened  in the science fair when Ayaan started with {a} balloons. He got from a friend {b}. What's left now?</t>
   </si>
   <si>
     <t>a10:18+b1:4</t>
   </si>
   <si>
-    <t>During a school trip, Ayaan had {a} pencils. Later, he gave away {b}. How many pencils does he have now?</t>
+    <t>It happened  at a birthday party when Sanit started with {a} marbles. She lost {b}. What's left now?</t>
   </si>
   <si>
     <t>a19:26-b2:5</t>
   </si>
   <si>
-    <t>While visiting grandma's house, Sanit had {a} shells. Later, she bundled into sets of {b}. How many shells does she have now?</t>
+    <t>It happened  in the library when Mubees started with {a} books. He bundled together {b}. What's left now?</t>
   </si>
   <si>
     <t>a20:30*b2:4</t>
   </si>
   <si>
-    <t>While helping a friend, Lina had {a} toffees. Later, she shared equally with friends {b}. How many toffees does she have now?</t>
+    <t>It happened  while visiting grandma when Sara started with {a} shells. She divided evenly {b}. What's left now?</t>
   </si>
   <si>
     <t>a18:22/b2:5</t>
   </si>
   <si>
-    <t>At the village fair, Lina had {a} pencils. Later, she kept a few as leftover {b}. How many pencils does she have now?</t>
+    <t>Sanit owned {a} stickers  while visiting grandma. Later, she kept a part aside {b}. How many remain?</t>
   </si>
   <si>
     <t>a25:35%b5:10</t>
   </si>
   <si>
-    <t>During a school trip, Arjun had {a} pencils. Later, he got {b}. How many pencils does he have now?</t>
+    <t>It happened  after finishing homework when Ayaan started with {a} books. He collected {b}. What's left now?</t>
   </si>
   <si>
     <t>a12:20+b3:6</t>
   </si>
   <si>
-    <t>During class break, Ayaan had {a} toys. Later, he gave away {b}. How many toys does he have now?</t>
+    <t>Ayaan had {a} coins  at a birthday party. He used up {b}. How many coins does he have now?</t>
   </si>
   <si>
     <t>a10:15-b1:3</t>
   </si>
   <si>
-    <t>While helping a friend, Arjun had {a} marbles. Later, he bundled into sets of {b}. How many marbles does he have now?</t>
+    <t>Fayis had {a} marbles  at a birthday party. He grouped into sets of {b}. How many marbles does he have now?</t>
   </si>
   <si>
     <t>a15:30*b1:3</t>
   </si>
   <si>
-    <t>On her birthday, Sara had {a} shells. Later, she shared equally with friends {b}. How many shells does she have now?</t>
+    <t>Arjun had {a} balloons  during a class activity. He divided evenly {b}. How many balloons does he have now?</t>
   </si>
   <si>
     <t>a28:36/b2:4</t>
   </si>
   <si>
-    <t>During class break, Sanit had {a} marbles. Later, she kept a few as leftover {b}. How many marbles does she have now?</t>
+    <t>Lina had {a} books  in the science fair. She had some leftover {b}. How many books does she have now?</t>
   </si>
   <si>
     <t>a30:40%b4:7</t>
   </si>
   <si>
-    <t>One fine day, Devika had {a} shells. Later, she got {b}. How many shells does she have now?</t>
+    <t>Ayaan had {a} toffees  on a picnic. He got from a friend {b}. How many toffees does he have now?</t>
   </si>
   <si>
     <t>a16:24+b2:6</t>
   </si>
   <si>
-    <t>On her birthday, Lina had {a} toffees. Later, she gave away {b}. How many toffees does she have now?</t>
+    <t>Mubees had {a} coins  during a class activity. He shared {b}. How many coins does he have now?</t>
   </si>
   <si>
     <t>a17:25-b3:5</t>
   </si>
   <si>
-    <t>During a school trip, Ayaan had {a} balloons. Later, he bundled into sets of {b}. How many balloons does he have now?</t>
+    <t>Fayis owned {a} coins  while visiting grandma. Later, he grouped into sets of {b}. How many remain?</t>
   </si>
   <si>
     <t>a19:29*b2:3</t>
   </si>
   <si>
-    <t>At the village fair, Nayana had {a} books. Later, she shared equally with friends {b}. How many books does she have now?</t>
+    <t>Sara owned {a} books  after finishing homework. Later, she split among friends {b}. How many remain?</t>
   </si>
   <si>
     <t>a22:32/b2:3</t>
   </si>
   <si>
-    <t>One fine day, Uthara had {a} pencils. Later, she kept a few as leftover {b}. How many pencils does she have now?</t>
+    <t>It happened  in the science fair when Arjun started with {a} shells. He left some aside {b}. What's left now?</t>
   </si>
   <si>
     <t>a29:35%b2:6</t>
   </si>
   <si>
-    <t>At the village fair, Rahul had {a} stickers. Later, he got {b}. How many stickers does he have now?</t>
+    <t>Devika owned {a} pencils  in the library. Later, she was gifted {b}. How many remain?</t>
   </si>
   <si>
     <t>a14:22+b4:8</t>
   </si>
   <si>
-    <t>One fine day, Sanit had {a} marbles. Later, she gave away {b}. How many marbles does she have now?</t>
+    <t>Arjun had {a} pencils  in the science fair. He gave away {b}. How many pencils does he have now?</t>
   </si>
   <si>
     <t>a20:28-b5:9</t>
   </si>
   <si>
-    <t>While helping a friend, Nayana had {a} shells. Later, she bundled into sets of {b}. How many shells does she have now?</t>
+    <t>Mubees had {a} erasers  while helping a friend. He grouped into sets of {b}. How many erasers does he have now?</t>
   </si>
   <si>
     <t>a24:32*b2:3</t>
   </si>
   <si>
-    <t>While helping a friend, Rahul had {a} books. Later, he shared equally with friends {b}. How many books does he have now?</t>
+    <t>Nayana owned {a} books  after finishing homework. Later, she split among friends {b}. How many remain?</t>
   </si>
   <si>
     <t>a18:25/b2:5</t>
   </si>
   <si>
-    <t>While walking to the market, Sara had {a} stickers. Later, she kept a few as leftover {b}. How many stickers does she have now?</t>
+    <t>Arjun owned {a} toys  during a class activity. Later, he found a remainder {b}. How many remain?</t>
   </si>
   <si>
     <t>a26:30%b2:5</t>
@@ -2841,13 +2841,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1147" workbookViewId="0">
-      <selection activeCell="A1156" sqref="A1156"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A1137" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="142.1796875" customWidth="1"/>
+    <col min="1" max="1" width="138.90625" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
